--- a/applications.xlsx
+++ b/applications.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +519,92 @@
           <t>v0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>datadog</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Technical Account Manager 3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-09-06T05:12:13</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://careers.datadoghq.com/detail/7206121/?gh_jid=7206121</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>greenhouse</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>greenhouse</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>static</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>datadog</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Technical Account Manager 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-09-06T06:52:31</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://careers.datadoghq.com/detail/7206121/?gh_jid=7206121</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>greenhouse</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>greenhouse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>static</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
